--- a/spec/fixtures/files/models/concerns/excel/sponsor_term_format_one_reader/read_input_4.xlsx
+++ b/spec/fixtures/files/models/concerns/excel/sponsor_term_format_one_reader/read_input_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/spec/fixtures/files/models/concerns/excel/sponsor_term_format_one_reader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E33819-126A-DF45-9CAC-70231DD09D5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127174DD-6D41-094B-8D89-2D7CA0CC371B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="460" windowWidth="31340" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="117">
   <si>
     <t>CODELIST_LONG_NAME</t>
   </si>
@@ -293,9 +293,6 @@
     <t>A numeric value of 7 indicating a dose delayed and reduced.</t>
   </si>
   <si>
-    <t>S000034</t>
-  </si>
-  <si>
     <t>Dose Delayed</t>
   </si>
   <si>
@@ -375,6 +372,18 @@
   </si>
   <si>
     <t>STUDY_USE</t>
+  </si>
+  <si>
+    <t>C667X</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>SN0000AA</t>
+  </si>
+  <si>
+    <t>S0000RR</t>
   </si>
 </sst>
 </file>
@@ -753,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -815,19 +824,19 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>14</v>
@@ -996,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
@@ -1037,7 +1046,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
@@ -1078,7 +1087,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -1430,7 +1439,7 @@
         <v>52</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>56</v>
@@ -1451,7 +1460,7 @@
         <v>24</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>25</v>
@@ -1477,7 +1486,7 @@
         <v>53</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>40</v>
@@ -1495,7 +1504,7 @@
         <v>42</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>25</v>
@@ -1586,7 +1595,7 @@
         <v>26</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>25</v>
@@ -1630,7 +1639,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>25</v>
@@ -1677,7 +1686,7 @@
         <v>25</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -1721,7 +1730,7 @@
         <v>25</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
@@ -1859,7 +1868,7 @@
         <v>26</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
@@ -1876,7 +1885,7 @@
         <v>72</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>79</v>
@@ -1906,7 +1915,7 @@
         <v>26</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -1973,16 +1982,16 @@
         <v>73</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
       <c r="H28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>78</v>
@@ -2020,7 +2029,7 @@
         <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>34</v>
@@ -2029,7 +2038,7 @@
         <v>63</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>78</v>
@@ -2047,7 +2056,7 @@
         <v>26</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -2067,7 +2076,7 @@
         <v>73</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>38</v>
@@ -2076,7 +2085,7 @@
         <v>61</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>78</v>
@@ -2094,7 +2103,7 @@
         <v>26</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
@@ -2114,7 +2123,7 @@
         <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>42</v>
@@ -2123,7 +2132,7 @@
         <v>59</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>78</v>
@@ -2161,7 +2170,7 @@
         <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>24</v>
@@ -2170,7 +2179,7 @@
         <v>57</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>78</v>
@@ -2208,7 +2217,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>30</v>
@@ -2217,7 +2226,7 @@
         <v>55</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>78</v>
@@ -2235,7 +2244,7 @@
         <v>26</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
@@ -2255,22 +2264,22 @@
         <v>73</v>
       </c>
       <c r="F34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="J34" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>78</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>25</v>
@@ -2282,7 +2291,7 @@
         <v>26</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2519,18 +2528,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2553,6 +2562,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D47102D7-D800-4CD4-B253-16D5CE2B889A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="e6598ab0-0177-45e1-aecb-2d4ca2ef9861"/>
@@ -2567,12 +2584,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B26FCB4-0E29-45C7-A22F-04F4B9F298BF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>